--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277951.934179392</v>
+        <v>1273939.324165399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197.2040098788582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>238.7813195717449</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>125.3498961124594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>219.3910552740765</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>328.9426795834356</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>21.21666597036211</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>9.099193441182178</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>345.8079317615164</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0151187504654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991775</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>6.43453821042729</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>168.5023926007961</v>
       </c>
       <c r="V19" t="n">
-        <v>25.73194049497363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.2944603446576</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.4262124629293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>24.83266606353065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>87.21471514852939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7304175246786</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4339,10 +4339,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2768.144153427816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2768.144153427816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2768.144153427816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.5841306576253</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4521,19 +4521,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1424.171080133376</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592603</v>
+        <v>1169.486591927489</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556427</v>
+        <v>1169.486591927489</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576253</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="Y4" t="n">
-        <v>584.5841306576253</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621926</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646114</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.2346852641123</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>483.2985023362054</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>333.1818629238696</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>185.2687693414765</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>185.2687693414765</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641123</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3316.41471712313</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3316.41471712313</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3062.884240396966</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4880,25 +4880,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.1533772316425</v>
+        <v>752.7622949738586</v>
       </c>
       <c r="C10" t="n">
-        <v>563.2171943037356</v>
+        <v>583.8261120459517</v>
       </c>
       <c r="D10" t="n">
-        <v>413.1005548913998</v>
+        <v>433.709472633616</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>285.7963790512229</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>138.9064315533125</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.594421205412</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>913.8018420618822</v>
+        <v>934.4107598040983</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>920.6398131926233</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>770.5231737802875</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>622.6100801978944</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>475.720132699984</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>308.5240334148639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>572.9069687101817</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>572.9069687101817</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.964043787807</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4357.362578810748</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4068.287352154946</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3813.602863949059</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3524.185693912098</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3524.185693912098</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F46" t="n">
-        <v>444.0993955623729</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G46" t="n">
-        <v>276.9032962772529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>210.970912116861</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>117.6820817884481</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288544</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.1584408891655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>58.20633287440185</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>68.29586847696596</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737783</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26343,16 +26343,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1037457.411218622</v>
       </c>
       <c r="C6" t="n">
-        <v>291287.33450897</v>
+        <v>291287.3345089704</v>
       </c>
       <c r="D6" t="n">
-        <v>291287.3345089703</v>
+        <v>291287.3345089701</v>
       </c>
       <c r="E6" t="n">
-        <v>43536.21610588636</v>
+        <v>43188.83685152937</v>
       </c>
       <c r="F6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="G6" t="n">
-        <v>368948.6779132413</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="H6" t="n">
-        <v>368948.6779132412</v>
+        <v>368601.2986588848</v>
       </c>
       <c r="I6" t="n">
-        <v>368948.6779132415</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="J6" t="n">
-        <v>151417.475515964</v>
+        <v>151070.096261607</v>
       </c>
       <c r="K6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="L6" t="n">
-        <v>368948.6779132416</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="M6" t="n">
-        <v>283893.6499777296</v>
+        <v>283546.2707233726</v>
       </c>
       <c r="N6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588844</v>
       </c>
       <c r="O6" t="n">
-        <v>368948.6779132416</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="P6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588845</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>168.0688818921493</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>12.21385238715709</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>41.89692498616843</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>66.8207829315364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.79116208004496</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>306.4732379112243</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>144.8091422886661</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>100.0885683469936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.92316891695259</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44.41884389610377</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911047</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400291</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859608</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273939.324165399</v>
+        <v>1275699.854468184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>197.2040098788582</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>330.6062873367891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>219.3910552740765</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>46.94783560699365</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>75.45713216103746</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.2621309673289</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>133.6650819731273</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>9.099193441182178</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991775</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.66004604095001</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>6.43453821042729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>168.5023926007961</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518039</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065582</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>126.4267013134142</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>60.25690685266579</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308157</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1626.778813528712</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1268.513114921961</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348091</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.000731372279</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.171080133376</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.486591927489</v>
+        <v>1369.003009614982</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.486591927489</v>
+        <v>1079.585839578021</v>
       </c>
       <c r="X4" t="n">
-        <v>941.4970410294717</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4755,10 +4755,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F8" t="n">
-        <v>481.584566587187</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3316.41471712313</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3316.41471712313</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.884240396966</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.821353053395</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2379.052697783281</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.586939522201</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738586</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459517</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>433.709472633616</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512229</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040983</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>261.012762333092</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797191</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852257</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>577.862038843392</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
         <v>261.012762333092</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>980.3030828171619</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>759.5105036736318</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.165434399143</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.371145873544</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.686657667657</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.269487630696</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326791</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E46" t="n">
-        <v>301.5721730233224</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F46" t="n">
-        <v>154.6822255254121</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>84.77391660561916</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>210.970912116861</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>117.6820817884481</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>99.28295407562294</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>105.2672314396031</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="16">
@@ -26319,10 +26319,10 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26334,19 +26334,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1037457.411218622</v>
       </c>
       <c r="C6" t="n">
+        <v>291287.3345089703</v>
+      </c>
+      <c r="D6" t="n">
         <v>291287.3345089704</v>
       </c>
-      <c r="D6" t="n">
-        <v>291287.3345089701</v>
-      </c>
       <c r="E6" t="n">
-        <v>43188.83685152937</v>
+        <v>43501.47818045002</v>
       </c>
       <c r="F6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="G6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="H6" t="n">
-        <v>368601.2986588848</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="I6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.939987806</v>
       </c>
       <c r="J6" t="n">
-        <v>151070.096261607</v>
+        <v>151382.7375905282</v>
       </c>
       <c r="K6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878056</v>
       </c>
       <c r="L6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="M6" t="n">
-        <v>283546.2707233726</v>
+        <v>283858.9120522937</v>
       </c>
       <c r="N6" t="n">
-        <v>368601.2986588844</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="O6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="P6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878057</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51.32408273547264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>66.8207829315364</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>205.1898077168344</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4732379112243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.9758076887247</v>
       </c>
     </row>
     <row r="6">
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>61.76674224145199</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>100.0885683469936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>68.10750358912664</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911047</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400291</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>164.2853229338195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862124</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982882</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593834</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862124</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859608</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>25.73094315394538</v>
       </c>
       <c r="M12" t="n">
         <v>603.412613764194</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35734,13 +35734,13 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762699</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754089</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795092</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
         <v>603.412613764194</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
